--- a/data/hotels_by_city/Dallas/Dallas_shard_578.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_578.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,207 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r452766552-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>226486</t>
+  </si>
+  <si>
+    <t>452766552</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>Older  Lady that work 3:00 to 11:00 she very disrespect fully have non respect for others and very rude ,this been going on for a while,I never again come back to motel6 I will tell family and.friends about her and the other lady who said she a manager ,oh she piece cake ,disrespect too .</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r401073447-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>401073447</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Choose Another Hotel</t>
+  </si>
+  <si>
+    <t>Where should I begin?  102 degrees outside when we unlocked the door to our room only to find that our air conditioner doesn't work.  That made for a very uncomfortable night.  The room was clean but the bedspread and blankets both had cigarette burns in them.  The weak toilet had to be flushed over and over again (about 4 or 5 times) to clear it and when it was cleared you had to remove the toilet's lid to make the flapper go down so it would refill with water.  Wi-Fi will cost you: $3 just to check email, $5 for full browsing privileges.  Unrelated to the room... the hotel parking lot and sidewalks in front of the rooms are very dirty and littered with just about everything.  I would pass this hotel on I-30 in east Fort Worth and find somewhere else to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Ft. Worth East, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Where should I begin?  102 degrees outside when we unlocked the door to our room only to find that our air conditioner doesn't work.  That made for a very uncomfortable night.  The room was clean but the bedspread and blankets both had cigarette burns in them.  The weak toilet had to be flushed over and over again (about 4 or 5 times) to clear it and when it was cleared you had to remove the toilet's lid to make the flapper go down so it would refill with water.  Wi-Fi will cost you: $3 just to check email, $5 for full browsing privileges.  Unrelated to the room... the hotel parking lot and sidewalks in front of the rooms are very dirty and littered with just about everything.  I would pass this hotel on I-30 in east Fort Worth and find somewhere else to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r377756873-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>377756873</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>This was the worst place I have ever stayed in. I had to ask three times for more towels. Bed linen was extremely thin. Old television that had snow on every chanel. The TV would blackout and make loud noises. No free Wi-Fi. This will never be a choice for me again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r258663092-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>258663092</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Sort of scary, sort of dirty</t>
+  </si>
+  <si>
+    <t>Stayed 3/7-3/9 and do not recommend it. This was our "second chance" stay and it was just as uncomfortable as the first time. Stained comforter, stale odor to pillows. Literally scraped something crusty off comforter. Scraped stuck on gunk from bathroom floor in three spots. Ran tissues around toilet rim and it was disgusting. Shower drain was full of crud so stood in 2-3 inches of water because it wouldn't drain properly through whole shower. The shower knob is backwards in that you move it towards cold indicator to get warm water.  We had a table but only one chair. Towels and wash clothes smelled really bad. The bed was uncomfortable and both mornings we had sore backs the first hour or so. Desk staff was friendly but had communication issues due to language barriers. If you are too tired to keep driving save your money and take a power nap in your car. The highway (i-35) is very bad with major holes near this place. It will destroy your alignment. The hotel is literally at the Papurt St. Exit and you will not be able to turn in if there is any traffic. I strongly recommend you spend a little more for a different location. No coffee or snacks. No microwave or fridge. Heater smelled so bad we slept cold.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 3/7-3/9 and do not recommend it. This was our "second chance" stay and it was just as uncomfortable as the first time. Stained comforter, stale odor to pillows. Literally scraped something crusty off comforter. Scraped stuck on gunk from bathroom floor in three spots. Ran tissues around toilet rim and it was disgusting. Shower drain was full of crud so stood in 2-3 inches of water because it wouldn't drain properly through whole shower. The shower knob is backwards in that you move it towards cold indicator to get warm water.  We had a table but only one chair. Towels and wash clothes smelled really bad. The bed was uncomfortable and both mornings we had sore backs the first hour or so. Desk staff was friendly but had communication issues due to language barriers. If you are too tired to keep driving save your money and take a power nap in your car. The highway (i-35) is very bad with major holes near this place. It will destroy your alignment. The hotel is literally at the Papurt St. Exit and you will not be able to turn in if there is any traffic. I strongly recommend you spend a little more for a different location. No coffee or snacks. No microwave or fridge. Heater smelled so bad we slept cold.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r251368540-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>251368540</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Its a dive</t>
+  </si>
+  <si>
+    <t>Asked for non-smoking room.   The blanket on the bed had cigarette burns in it.    Could smell a strong odor of cigarette smoke like they were smoking in the next room.    The TV was out of the 70's, a little square box....no flat screen here!   If youwant Wi-Fi  you have to.pay extra for it.   No tissues in room. No coffeepot in room.   No breakfast with your stay.   Furniture was all beat up.  Room was hot even with AC turned all the way up.   I will NEVER stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Ft. Worth East, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Asked for non-smoking room.   The blanket on the bed had cigarette burns in it.    Could smell a strong odor of cigarette smoke like they were smoking in the next room.    The TV was out of the 70's, a little square box....no flat screen here!   If youwant Wi-Fi  you have to.pay extra for it.   No tissues in room. No coffeepot in room.   No breakfast with your stay.   Furniture was all beat up.  Room was hot even with AC turned all the way up.   I will NEVER stay here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r205452857-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>205452857</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>I like staying here</t>
+  </si>
+  <si>
+    <t>I found this hotel while working in Ft. Worth, my company's office was close by, and it has a Waffle House in the parking lot, and a Taco Bell across the street, and if you want something more thing more, then its less than a block off I-30, you can head east to about a mile to I-820, and you will find many nice restaurants.The rooms are newly remodeled and are clean, the pool is nice and in a convenient location, with the right room you can enjoy the hot Texas sun and the cool of the pool.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r116364130-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>116364130</t>
+  </si>
+  <si>
+    <t>08/06/2011</t>
+  </si>
+  <si>
+    <t>A very good choice for the budget minded or no frills traveler</t>
+  </si>
+  <si>
+    <t>We were in town for a convention, booked 3 nights for the price of 1 at a downton hotel.  This motel is maybe 10 minutes away from the convention center with easy access to the interstateand a straight shot to down town. Exit lancater avenu and your 2 block from the convention center.  The only draw back to this motel was the internet access which was pretty much nonexistent.  I don't mind paying the $3.00 a day, but it does not work very well.  The room was clean and the staff was friendly and offered a refund for the internet fee.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r64306037-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>64306037</t>
+  </si>
+  <si>
+    <t>05/16/2010</t>
+  </si>
+  <si>
+    <t>Pleasant and economical motel</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Motel 6 Fort Worth East for five nights in April 2010 while we visited tourist sites in Fort Worth and Dallas.  The motel is just off the freeway connecting Fort Worth and Dallas, but much closer to Fort Worth.  It was more convenient for us to stay closer to Fort Worth since we were in Dallas on our airport arrival and departure days anyway.  The room was very nice and appeared to have been recently remodeled.  The bed was very comfortable and the room was quiet.  Wireless internet, available on request for a small fee, was very fast and strong.  The staff was friendly and helpful.  It is a pleasant and economical motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Motel 6 Fort Worth East for five nights in April 2010 while we visited tourist sites in Fort Worth and Dallas.  The motel is just off the freeway connecting Fort Worth and Dallas, but much closer to Fort Worth.  It was more convenient for us to stay closer to Fort Worth since we were in Dallas on our airport arrival and departure days anyway.  The room was very nice and appeared to have been recently remodeled.  The bed was very comfortable and the room was quiet.  Wireless internet, available on request for a small fee, was very fast and strong.  The staff was friendly and helpful.  It is a pleasant and economical motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r1374422-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>1374422</t>
+  </si>
+  <si>
+    <t>10/02/2003</t>
+  </si>
+  <si>
+    <t>one of my worse stays in a hotel</t>
+  </si>
+  <si>
+    <t>Upon making my reservation, I was informed of where the hotel was located, which was opposite of the hosiptal of what I was told (workable, misunderstanding). Than when I did check-in on arrival, the staff was not friendly in anyway, very unprofessionally dressed, her dress was more for going skating, or other activities. Than she did not give location of where room was, and showed no interest in giving any information, other than to the male that was visiting with her. I asked for a non-smoking room, although the sign on the door said non-smoking, the room smelled very much like smoke, the bedding had burns in it as well as burns on the tub, vanity and numerous other places. This was in room 125, the bathroom was also dirty at baseboards, and vents were nasty. I also requested a late checkout at 1:00, upon making my reservation the night before my arrival, I was informed no problem, but on check-in I got attitude, and told that I would have to talk with the manager in the morning about that. I had to be at the hosiptal at 7:00 a.m. so I tried to talk to that person, but was informed I would have to wait til 7:00, because nobody else had that athorization. My daugher had to have testing so I left my cell number to call me, they never did call. I also mention the room being a...Upon making my reservation, I was informed of where the hotel was located, which was opposite of the hosiptal of what I was told (workable, misunderstanding). Than when I did check-in on arrival, the staff was not friendly in anyway, very unprofessionally dressed, her dress was more for going skating, or other activities. Than she did not give location of where room was, and showed no interest in giving any information, other than to the male that was visiting with her. I asked for a non-smoking room, although the sign on the door said non-smoking, the room smelled very much like smoke, the bedding had burns in it as well as burns on the tub, vanity and numerous other places. This was in room 125, the bathroom was also dirty at baseboards, and vents were nasty. I also requested a late checkout at 1:00, upon making my reservation the night before my arrival, I was informed no problem, but on check-in I got attitude, and told that I would have to talk with the manager in the morning about that. I had to be at the hosiptal at 7:00 a.m. so I tried to talk to that person, but was informed I would have to wait til 7:00, because nobody else had that athorization. My daugher had to have testing so I left my cell number to call me, they never did call. I also mention the room being a non-smoking room and having a ash tray in the room and the smell, the burns. I was informed all rooms have ashtrays, even non-smoking rooms, because sometimes guest have people that visit that smoke. So I wonder what is a non-smoking room , my daughter and I are allergic to smoke, so this meant a huge inconvenice for us. We will never again stay at this hotel, due to rude staff, non-smoking room conditions, and the inability for anyone to be able to make a decision. The dirty bathroom and damage bedding is a disgrace, I have never stayed anywhere quite so bad with such a dependable name. Motel 6 may not be luxurious, but was alway clean and could be counted on for all of the good basic. It is sad, because I travel to Ft. Worth alot, and stay in hotels nearly every month if not more, due to my childrens medical. I prefer the Homestead Suites on Riverrun, because they were alway polite and offered clean rooms. Unfortunely they were full, so I tried Motel 6 as a affordable alternate. Never again with this location. Maybe the one on Vegas in Ft. Worth if I am ever caught in this situation again, and from time to time I cannot get a room there in the Homestead. Thanks for your time, and I hope that the hotel can fix their problems, because they are in a reasonable location to the Cooks Hosiptal.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon making my reservation, I was informed of where the hotel was located, which was opposite of the hosiptal of what I was told (workable, misunderstanding). Than when I did check-in on arrival, the staff was not friendly in anyway, very unprofessionally dressed, her dress was more for going skating, or other activities. Than she did not give location of where room was, and showed no interest in giving any information, other than to the male that was visiting with her. I asked for a non-smoking room, although the sign on the door said non-smoking, the room smelled very much like smoke, the bedding had burns in it as well as burns on the tub, vanity and numerous other places. This was in room 125, the bathroom was also dirty at baseboards, and vents were nasty. I also requested a late checkout at 1:00, upon making my reservation the night before my arrival, I was informed no problem, but on check-in I got attitude, and told that I would have to talk with the manager in the morning about that. I had to be at the hosiptal at 7:00 a.m. so I tried to talk to that person, but was informed I would have to wait til 7:00, because nobody else had that athorization. My daugher had to have testing so I left my cell number to call me, they never did call. I also mention the room being a...Upon making my reservation, I was informed of where the hotel was located, which was opposite of the hosiptal of what I was told (workable, misunderstanding). Than when I did check-in on arrival, the staff was not friendly in anyway, very unprofessionally dressed, her dress was more for going skating, or other activities. Than she did not give location of where room was, and showed no interest in giving any information, other than to the male that was visiting with her. I asked for a non-smoking room, although the sign on the door said non-smoking, the room smelled very much like smoke, the bedding had burns in it as well as burns on the tub, vanity and numerous other places. This was in room 125, the bathroom was also dirty at baseboards, and vents were nasty. I also requested a late checkout at 1:00, upon making my reservation the night before my arrival, I was informed no problem, but on check-in I got attitude, and told that I would have to talk with the manager in the morning about that. I had to be at the hosiptal at 7:00 a.m. so I tried to talk to that person, but was informed I would have to wait til 7:00, because nobody else had that athorization. My daugher had to have testing so I left my cell number to call me, they never did call. I also mention the room being a non-smoking room and having a ash tray in the room and the smell, the burns. I was informed all rooms have ashtrays, even non-smoking rooms, because sometimes guest have people that visit that smoke. So I wonder what is a non-smoking room , my daughter and I are allergic to smoke, so this meant a huge inconvenice for us. We will never again stay at this hotel, due to rude staff, non-smoking room conditions, and the inability for anyone to be able to make a decision. The dirty bathroom and damage bedding is a disgrace, I have never stayed anywhere quite so bad with such a dependable name. Motel 6 may not be luxurious, but was alway clean and could be counted on for all of the good basic. It is sad, because I travel to Ft. Worth alot, and stay in hotels nearly every month if not more, due to my childrens medical. I prefer the Homestead Suites on Riverrun, because they were alway polite and offered clean rooms. Unfortunely they were full, so I tried Motel 6 as a affordable alternate. Never again with this location. Maybe the one on Vegas in Ft. Worth if I am ever caught in this situation again, and from time to time I cannot get a room there in the Homestead. Thanks for your time, and I hope that the hotel can fix their problems, because they are in a reasonable location to the Cooks Hosiptal.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +846,567 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_578.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_578.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Sweetp49</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>bencart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r401073447-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Where should I begin?  102 degrees outside when we unlocked the door to our room only to find that our air conditioner doesn't work.  That made for a very uncomfortable night.  The room was clean but the bedspread and blankets both had cigarette burns in them.  The weak toilet had to be flushed over and over again (about 4 or 5 times) to clear it and when it was cleared you had to remove the toilet's lid to make the flapper go down so it would refill with water.  Wi-Fi will cost you: $3 just to check email, $5 for full browsing privileges.  Unrelated to the room... the hotel parking lot and sidewalks in front of the rooms are very dirty and littered with just about everything.  I would pass this hotel on I-30 in east Fort Worth and find somewhere else to stay.More</t>
   </si>
   <si>
+    <t>pickels7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r377756873-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Valerie1228</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r258663092-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>Stayed 3/7-3/9 and do not recommend it. This was our "second chance" stay and it was just as uncomfortable as the first time. Stained comforter, stale odor to pillows. Literally scraped something crusty off comforter. Scraped stuck on gunk from bathroom floor in three spots. Ran tissues around toilet rim and it was disgusting. Shower drain was full of crud so stood in 2-3 inches of water because it wouldn't drain properly through whole shower. The shower knob is backwards in that you move it towards cold indicator to get warm water.  We had a table but only one chair. Towels and wash clothes smelled really bad. The bed was uncomfortable and both mornings we had sore backs the first hour or so. Desk staff was friendly but had communication issues due to language barriers. If you are too tired to keep driving save your money and take a power nap in your car. The highway (i-35) is very bad with major holes near this place. It will destroy your alignment. The hotel is literally at the Papurt St. Exit and you will not be able to turn in if there is any traffic. I strongly recommend you spend a little more for a different location. No coffee or snacks. No microwave or fridge. Heater smelled so bad we slept cold.More</t>
   </si>
   <si>
+    <t>MCSpaints</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r251368540-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>Asked for non-smoking room.   The blanket on the bed had cigarette burns in it.    Could smell a strong odor of cigarette smoke like they were smoking in the next room.    The TV was out of the 70's, a little square box....no flat screen here!   If youwant Wi-Fi  you have to.pay extra for it.   No tissues in room. No coffeepot in room.   No breakfast with your stay.   Furniture was all beat up.  Room was hot even with AC turned all the way up.   I will NEVER stay here again.  More</t>
   </si>
   <si>
+    <t>Glen O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r205452857-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>MrKittySA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r116364130-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>kennethj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r64306037-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -328,6 +352,9 @@
   </si>
   <si>
     <t>My wife and I stayed at the Motel 6 Fort Worth East for five nights in April 2010 while we visited tourist sites in Fort Worth and Dallas.  The motel is just off the freeway connecting Fort Worth and Dallas, but much closer to Fort Worth.  It was more convenient for us to stay closer to Fort Worth since we were in Dallas on our airport arrival and departure days anyway.  The room was very nice and appeared to have been recently remodeled.  The bed was very comfortable and the room was quiet.  Wireless internet, available on request for a small fee, was very fast and strong.  The staff was friendly and helpful.  It is a pleasant and economical motel.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r1374422-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
@@ -850,43 +877,47 @@
       <c r="A2" t="n">
         <v>5955</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169437</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -900,50 +931,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5955</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169438</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -961,56 +996,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5955</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169439</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1024,41 +1063,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5955</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169440</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
@@ -1087,41 +1130,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5955</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169441</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -1148,56 +1195,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5955</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169442</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1221,50 +1272,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5955</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169443</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
         <v>96</v>
-      </c>
-      <c r="O8" t="s">
-        <v>90</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1284,50 +1339,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5955</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169444</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1351,41 +1410,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5955</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1404,7 +1467,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_578.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_578.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Sweetp49</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r520926971-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>226486</t>
+  </si>
+  <si>
+    <t>520926971</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Better than camping outside....</t>
+  </si>
+  <si>
+    <t>Let me start with saying that I gave this motel 6 3 stars because they didn't charge me the first night when I had to cancel after the 24 hour required time.  Kudos for this.  The parking lot needs serious attention.  Potholes everywhere and a lot of debris floating around.  The pool was murky and greenish.  Pretty sure the gate was locked for that reason.  The room was happily clean and the beds looked just like they do in the advertisement.  The bathroom tub and toilet were old but clean and everything worked.  The water is hot.  The sink and counter was new and updated but the water saver on the faucet is too restrictive.  No tissues, microwave, refrigerator, coffee maker or hair dryer.  Just the bare minimums, which of course is why the price is so low.  $75 for one night with tax and fees included.  I see why folks will stay here.  We were here for a softball tournament, not a vacation, so I see the benefit of having a place like this to stay for a couple of nights.  The manager and her assistant were friendly and helpful and the cleaning staff was friendly and they do their job well.  Take a blanket.  AC works great but I was freezing that night and the blanket on the bed is thin.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Let me start with saying that I gave this motel 6 3 stars because they didn't charge me the first night when I had to cancel after the 24 hour required time.  Kudos for this.  The parking lot needs serious attention.  Potholes everywhere and a lot of debris floating around.  The pool was murky and greenish.  Pretty sure the gate was locked for that reason.  The room was happily clean and the beds looked just like they do in the advertisement.  The bathroom tub and toilet were old but clean and everything worked.  The water is hot.  The sink and counter was new and updated but the water saver on the faucet is too restrictive.  No tissues, microwave, refrigerator, coffee maker or hair dryer.  Just the bare minimums, which of course is why the price is so low.  $75 for one night with tax and fees included.  I see why folks will stay here.  We were here for a softball tournament, not a vacation, so I see the benefit of having a place like this to stay for a couple of nights.  The manager and her assistant were friendly and helpful and the cleaning staff was friendly and they do their job well.  Take a blanket.  AC works great but I was freezing that night and the blanket on the bed is thin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r489188285-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>489188285</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Never Again will I stay</t>
+  </si>
+  <si>
+    <t>The rooms smelling, dirty, old broken A/C units, physical structure run down, needs painting, fixing, replacing, old broken TV, dirty linen, mattresses, hopeless, physical structure completely run down.    Upper management needs to come and stay in the motel and   find out for themselves.     The personnel, very helpful, friendly and cooperative.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r452766552-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>226486</t>
-  </si>
-  <si>
     <t>452766552</t>
   </si>
   <si>
@@ -177,12 +219,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>bencart</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r401073447-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -201,9 +237,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Motel 6 Ft. Worth East, responded to this reviewResponded August 9, 2016</t>
   </si>
   <si>
@@ -213,9 +246,6 @@
     <t>Where should I begin?  102 degrees outside when we unlocked the door to our room only to find that our air conditioner doesn't work.  That made for a very uncomfortable night.  The room was clean but the bedspread and blankets both had cigarette burns in them.  The weak toilet had to be flushed over and over again (about 4 or 5 times) to clear it and when it was cleared you had to remove the toilet's lid to make the flapper go down so it would refill with water.  Wi-Fi will cost you: $3 just to check email, $5 for full browsing privileges.  Unrelated to the room... the hotel parking lot and sidewalks in front of the rooms are very dirty and littered with just about everything.  I would pass this hotel on I-30 in east Fort Worth and find somewhere else to stay.More</t>
   </si>
   <si>
-    <t>pickels7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r377756873-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -237,7 +267,46 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Valerie1228</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r370922464-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>370922464</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Typical Motel 6</t>
+  </si>
+  <si>
+    <t>I've stayed here quite a few times when passing through Fort Worth and the stay has been consistent each time. It's inexpensive and near an older, low economic neighborhood but haven't noticed ny real issues from the surrounding area -- probably because the highway separate it.Never noticed any bugs and the various rooms have always been clean. The beds are comfortable, but the TV and the television signal are the worst I've see in years. Old school tube TVs are sad considering the cost of cheap, small TVs nowadays.Check-in has always been interesting and friendly, though I've never had a problem needing further assistance.The pool seems very clean, but I've never used it.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I've stayed here quite a few times when passing through Fort Worth and the stay has been consistent each time. It's inexpensive and near an older, low economic neighborhood but haven't noticed ny real issues from the surrounding area -- probably because the highway separate it.Never noticed any bugs and the various rooms have always been clean. The beds are comfortable, but the TV and the television signal are the worst I've see in years. Old school tube TVs are sad considering the cost of cheap, small TVs nowadays.Check-in has always been interesting and friendly, though I've never had a problem needing further assistance.The pool seems very clean, but I've never used it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r361511030-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>361511030</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Unacceptable, Unsafe, Uncaring, Unbeleivable</t>
+  </si>
+  <si>
+    <t>As we pulled in we noticed several windows open on each side of the building with people hanging outside, this was very out of place.  We checked in and reported this, and the guy could careless.  We noticed meant empty cases of beer scattered all over the parking lot.  We were missing towels and got the same response.  We did see what appeared to be a security guard with a gun holstered walking the halls.  We had a very uneasy feeling, I am with my children and this is not a common sight.  With no judging at all we seen many people that did sit well with us.  Power went out at 10PM and DID NOT COME BACK ON until 7AM,  No one answered at the front desk, and at check out gave the corporate number and an "oh well".  Not a safe place to stay out.  Never again and Corporate NEEDS to evaluate the whole business.  This is NOT A FAMILY stay hotel and not safe for any person travelling.  The worst ever!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>As we pulled in we noticed several windows open on each side of the building with people hanging outside, this was very out of place.  We checked in and reported this, and the guy could careless.  We noticed meant empty cases of beer scattered all over the parking lot.  We were missing towels and got the same response.  We did see what appeared to be a security guard with a gun holstered walking the halls.  We had a very uneasy feeling, I am with my children and this is not a common sight.  With no judging at all we seen many people that did sit well with us.  Power went out at 10PM and DID NOT COME BACK ON until 7AM,  No one answered at the front desk, and at check out gave the corporate number and an "oh well".  Not a safe place to stay out.  Never again and Corporate NEEDS to evaluate the whole business.  This is NOT A FAMILY stay hotel and not safe for any person travelling.  The worst ever!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r258663092-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
@@ -258,9 +327,6 @@
     <t>Stayed 3/7-3/9 and do not recommend it. This was our "second chance" stay and it was just as uncomfortable as the first time. Stained comforter, stale odor to pillows. Literally scraped something crusty off comforter. Scraped stuck on gunk from bathroom floor in three spots. Ran tissues around toilet rim and it was disgusting. Shower drain was full of crud so stood in 2-3 inches of water because it wouldn't drain properly through whole shower. The shower knob is backwards in that you move it towards cold indicator to get warm water.  We had a table but only one chair. Towels and wash clothes smelled really bad. The bed was uncomfortable and both mornings we had sore backs the first hour or so. Desk staff was friendly but had communication issues due to language barriers. If you are too tired to keep driving save your money and take a power nap in your car. The highway (i-35) is very bad with major holes near this place. It will destroy your alignment. The hotel is literally at the Papurt St. Exit and you will not be able to turn in if there is any traffic. I strongly recommend you spend a little more for a different location. No coffee or snacks. No microwave or fridge. Heater smelled so bad we slept cold.More</t>
   </si>
   <si>
-    <t>MCSpaints</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r251368540-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -285,9 +351,6 @@
     <t>Asked for non-smoking room.   The blanket on the bed had cigarette burns in it.    Could smell a strong odor of cigarette smoke like they were smoking in the next room.    The TV was out of the 70's, a little square box....no flat screen here!   If youwant Wi-Fi  you have to.pay extra for it.   No tissues in room. No coffeepot in room.   No breakfast with your stay.   Furniture was all beat up.  Room was hot even with AC turned all the way up.   I will NEVER stay here again.  More</t>
   </si>
   <si>
-    <t>Glen O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r205452857-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -306,10 +369,40 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>MrKittySA</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r171656944-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>171656944</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>Nice Surprize.</t>
+  </si>
+  <si>
+    <t>We spent a very long day at Hurricane Harbor without making reservations anywhere so we went to Fort worth to find a hotel. Imagine my surprize when we pulled into the Motel Six and got  three rooms for 56 dollars each. Rooms were neat, clean and orderly, they contained eveything we needed. The bed was alittle to hard for me but my wife liked it. The area was sort of run down and I was approached in the parking lot by a panhandler. He was very quickly run off by an off duty Ft worth policeman working as security. The front desk people were very friendly and completely helpful. We definitely would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We spent a very long day at Hurricane Harbor without making reservations anywhere so we went to Fort worth to find a hotel. Imagine my surprize when we pulled into the Motel Six and got  three rooms for 56 dollars each. Rooms were neat, clean and orderly, they contained eveything we needed. The bed was alittle to hard for me but my wife liked it. The area was sort of run down and I was approached in the parking lot by a panhandler. He was very quickly run off by an off duty Ft worth policeman working as security. The front desk people were very friendly and completely helpful. We definitely would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r119551268-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>119551268</t>
+  </si>
+  <si>
+    <t>10/21/2011</t>
+  </si>
+  <si>
+    <t>Cheap and Clean</t>
+  </si>
+  <si>
+    <t>This renovated Motel 6 has very clean, updated rooms. The neighborhood is probably not the best, but they do have a friendly security guard patrolling at night.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r116364130-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
@@ -330,9 +423,6 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>kennethj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r64306037-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -352,9 +442,6 @@
   </si>
   <si>
     <t>My wife and I stayed at the Motel 6 Fort Worth East for five nights in April 2010 while we visited tourist sites in Fort Worth and Dallas.  The motel is just off the freeway connecting Fort Worth and Dallas, but much closer to Fort Worth.  It was more convenient for us to stay closer to Fort Worth since we were in Dallas on our airport arrival and departure days anyway.  The room was very nice and appeared to have been recently remodeled.  The bed was very comfortable and the room was quiet.  Wireless internet, available on request for a small fee, was very fast and strong.  The staff was friendly and helpful.  It is a pleasant and economical motel.More</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d226486-r1374422-Motel_6_Ft_Worth_East-Fort_Worth_Texas.html</t>
@@ -877,179 +964,167 @@
       <c r="A2" t="n">
         <v>5955</v>
       </c>
-      <c r="B2" t="n">
-        <v>169437</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5955</v>
       </c>
-      <c r="B3" t="n">
-        <v>169438</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5955</v>
       </c>
-      <c r="B4" t="n">
-        <v>169439</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1063,208 +1138,186 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5955</v>
       </c>
-      <c r="B5" t="n">
-        <v>169440</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
         <v>2</v>
       </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5955</v>
       </c>
-      <c r="B6" t="n">
-        <v>169441</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" t="s">
-        <v>87</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5955</v>
       </c>
-      <c r="B7" t="n">
-        <v>169442</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="n">
         <v>3</v>
       </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1272,66 +1325,62 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5955</v>
       </c>
-      <c r="B8" t="n">
-        <v>169443</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1339,70 +1388,62 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5955</v>
       </c>
-      <c r="B9" t="n">
-        <v>169444</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
         <v>4</v>
       </c>
-      <c r="N9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1410,64 +1451,454 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5955</v>
       </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s"/>
       <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
       <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
         <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5955</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
